--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E16A48-7F4B-406A-8021-BE9C04964C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2EAB8-740A-45C8-94BF-D206B9E364C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,45 @@
   </si>
   <si>
     <t>Practicing Landings</t>
+  </si>
+  <si>
+    <t>Ground Reference Manuevers</t>
+  </si>
+  <si>
+    <t>Closer Look: Taxi Tips</t>
+  </si>
+  <si>
+    <t>Engines</t>
+  </si>
+  <si>
+    <t>Air Facts: Engine Suspicion</t>
+  </si>
+  <si>
+    <t>Aerodynamics</t>
+  </si>
+  <si>
+    <t>Air Closer Look: Angle of Attack</t>
+  </si>
+  <si>
+    <t>Slow Flight</t>
+  </si>
+  <si>
+    <t>Closer Look: Change of Scenery</t>
+  </si>
+  <si>
+    <t>Stalls</t>
+  </si>
+  <si>
+    <t>Air Facts:Stall Rhetoric</t>
+  </si>
+  <si>
+    <t>2/21/20223</t>
+  </si>
+  <si>
+    <t>Normal Landings</t>
+  </si>
+  <si>
+    <t>Air Facts: Down to Earth</t>
   </si>
 </sst>
 </file>
@@ -457,16 +496,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -770,10 +809,134 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E2EAB8-740A-45C8-94BF-D206B9E364C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99989FE-8B20-45CE-A3ED-D6C681272A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -150,13 +150,37 @@
     <t>Air Facts:Stall Rhetoric</t>
   </si>
   <si>
-    <t>2/21/20223</t>
-  </si>
-  <si>
     <t>Normal Landings</t>
   </si>
   <si>
     <t>Air Facts: Down to Earth</t>
+  </si>
+  <si>
+    <t>Your First Solo</t>
+  </si>
+  <si>
+    <t>Pre-Solo Maneuvers</t>
+  </si>
+  <si>
+    <t>Closer Look: International Flying</t>
+  </si>
+  <si>
+    <t>Steep Turns</t>
+  </si>
+  <si>
+    <t>Emergencies</t>
+  </si>
+  <si>
+    <t>Air Facts: Emergencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your First Solo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fog and Atmospheric Pressure </t>
+  </si>
+  <si>
+    <t>A Closer Look: Atmospheric Pressure</t>
   </si>
 </sst>
 </file>
@@ -496,21 +520,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44824</v>
       </c>
@@ -532,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44824</v>
       </c>
@@ -543,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44824</v>
       </c>
@@ -554,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44824</v>
       </c>
@@ -565,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44824</v>
       </c>
@@ -576,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44825</v>
       </c>
@@ -587,7 +611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44826</v>
       </c>
@@ -598,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44826</v>
       </c>
@@ -609,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44834</v>
       </c>
@@ -620,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44834</v>
       </c>
@@ -631,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -642,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44834</v>
       </c>
@@ -653,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44834</v>
       </c>
@@ -664,7 +688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44834</v>
       </c>
@@ -675,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44834</v>
       </c>
@@ -686,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44836</v>
       </c>
@@ -697,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44836</v>
       </c>
@@ -708,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44867</v>
       </c>
@@ -719,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44868</v>
       </c>
@@ -730,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44868</v>
       </c>
@@ -741,7 +765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44868</v>
       </c>
@@ -752,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44868</v>
       </c>
@@ -763,7 +787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44868</v>
       </c>
@@ -774,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44868</v>
       </c>
@@ -785,7 +809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
@@ -796,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44874</v>
       </c>
@@ -807,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44876</v>
       </c>
@@ -818,7 +842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44876</v>
       </c>
@@ -829,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44876</v>
       </c>
@@ -840,7 +864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44876</v>
       </c>
@@ -851,7 +875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44878</v>
       </c>
@@ -862,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44878</v>
       </c>
@@ -873,7 +897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44878</v>
       </c>
@@ -884,7 +908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44878</v>
       </c>
@@ -895,7 +919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44976</v>
       </c>
@@ -906,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44978</v>
       </c>
@@ -917,26 +941,103 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B40" t="s">
         <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Documents\Pilot-Training\Sportys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99989FE-8B20-45CE-A3ED-D6C681272A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A286A4CC-9A06-4096-93CB-8D6D700684D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>A Closer Look: Atmospheric Pressure</t>
+  </si>
+  <si>
+    <t>The Pitot Static System</t>
+  </si>
+  <si>
+    <t>Closer Look: Pilot's Operating Handbook</t>
+  </si>
+  <si>
+    <t>METARs and the Weather Depiction Chart</t>
+  </si>
+  <si>
+    <t>Terminal Aerodrome Forecast (TAF)</t>
   </si>
 </sst>
 </file>
@@ -520,21 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44824</v>
       </c>
@@ -556,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44824</v>
       </c>
@@ -567,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44824</v>
       </c>
@@ -578,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44824</v>
       </c>
@@ -589,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44824</v>
       </c>
@@ -600,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44825</v>
       </c>
@@ -611,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44826</v>
       </c>
@@ -622,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44826</v>
       </c>
@@ -633,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44834</v>
       </c>
@@ -644,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44834</v>
       </c>
@@ -655,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -666,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44834</v>
       </c>
@@ -677,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44834</v>
       </c>
@@ -688,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44834</v>
       </c>
@@ -699,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44834</v>
       </c>
@@ -710,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44836</v>
       </c>
@@ -721,7 +733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44836</v>
       </c>
@@ -732,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44867</v>
       </c>
@@ -743,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44868</v>
       </c>
@@ -754,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44868</v>
       </c>
@@ -765,7 +777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44868</v>
       </c>
@@ -776,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44868</v>
       </c>
@@ -787,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44868</v>
       </c>
@@ -798,7 +810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44868</v>
       </c>
@@ -809,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44874</v>
       </c>
@@ -820,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44874</v>
       </c>
@@ -831,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44876</v>
       </c>
@@ -842,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44876</v>
       </c>
@@ -853,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44876</v>
       </c>
@@ -864,7 +876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44876</v>
       </c>
@@ -875,7 +887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44878</v>
       </c>
@@ -886,7 +898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44878</v>
       </c>
@@ -897,7 +909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44878</v>
       </c>
@@ -908,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44878</v>
       </c>
@@ -919,7 +931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44976</v>
       </c>
@@ -930,7 +942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44978</v>
       </c>
@@ -941,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44978</v>
       </c>
@@ -952,7 +964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44978</v>
       </c>
@@ -963,7 +975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44980</v>
       </c>
@@ -974,7 +986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44980</v>
       </c>
@@ -985,7 +997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44982</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44989</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44989</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45003</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45003</v>
       </c>
@@ -1038,6 +1050,50 @@
       </c>
       <c r="C46" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A286A4CC-9A06-4096-93CB-8D6D700684D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36A170-B2A5-4918-BDFD-54FE4722DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Terminal Aerodrome Forecast (TAF)</t>
+  </si>
+  <si>
+    <t>Closer Look: Get the Big Picture</t>
+  </si>
+  <si>
+    <t>Intro to Glass Cockpit Systems</t>
+  </si>
+  <si>
+    <t>Airport Signs and Markings</t>
   </si>
 </sst>
 </file>
@@ -532,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,6 +1105,39 @@
         <v>55</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36A170-B2A5-4918-BDFD-54FE4722DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18316D9E-C8CA-4941-83E0-DF28ECEC455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Airport Signs and Markings</t>
+  </si>
+  <si>
+    <t>Radar Imagery</t>
+  </si>
+  <si>
+    <t>Thunderstorms and Convective Forecasts</t>
   </si>
 </sst>
 </file>
@@ -541,18 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38:J40"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,6 +1144,28 @@
         <v>58</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18316D9E-C8CA-4941-83E0-DF28ECEC455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FFA1E1-1AC8-4EAE-BCD5-24AD98D7E355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Thunderstorms and Convective Forecasts</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>A closer look : Reducing Drag</t>
+  </si>
+  <si>
+    <t>Thrust,Stability, and Center of Gravity</t>
+  </si>
+  <si>
+    <t>Flight service Weather Briefings</t>
   </si>
 </sst>
 </file>
@@ -547,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="Q43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1178,50 @@
         <v>59</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sportys/Video Record.xlsx
+++ b/Sportys/Video Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pilot-Training\Sportys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FFA1E1-1AC8-4EAE-BCD5-24AD98D7E355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90A061-2E30-4AC4-93E2-BEEBEAE1C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>Flight service Weather Briefings</t>
+  </si>
+  <si>
+    <t>Collision Avoidance</t>
+  </si>
+  <si>
+    <t>Student Pilot &amp; Medical Cetificate</t>
+  </si>
+  <si>
+    <t>Air Facts: Fit for Flight</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Your Dual Cross Countries</t>
   </si>
 </sst>
 </file>
@@ -559,17 +574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q43" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,6 +1237,58 @@
         <v>64</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
